--- a/Data/Winrates_Data_148.xlsx
+++ b/Data/Winrates_Data_148.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodst\OneDrive\Bærbar\Polit\Kandidat\KU\E20 - Speciale\Github\speciale2020\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\speciale2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{2117D7CA-F900-4562-88F4-6D8564532AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7F0E3E4C-251B-4758-A3C8-CEFD4517C448}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F23EF-2888-4963-87DA-44A661990770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-375" windowWidth="29040" windowHeight="15840" xr2:uid="{DEEB8CF4-1740-4172-9091-4761D314F4F6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEEB8CF4-1740-4172-9091-4761D314F4F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -1085,12 +1085,12 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:N16"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>[1]Winrates_!I13*100</f>
         <v>50</v>
@@ -1192,7 +1192,7 @@
         <v>65.52</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>[1]Winrates_!I14*100</f>
         <v>56.169999999999995</v>
@@ -1250,7 +1250,7 @@
         <v>74.62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>[1]Winrates_!I15*100</f>
         <v>45.830000000000005</v>
@@ -1308,7 +1308,7 @@
         <v>62.749999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>[1]Winrates_!I16*100</f>
         <v>57.05</v>
@@ -1366,7 +1366,7 @@
         <v>52.959999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>[1]Winrates_!I17*100</f>
         <v>37.050000000000004</v>
@@ -1424,7 +1424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>[1]Winrates_!I18*100</f>
         <v>66.97</v>
@@ -1482,7 +1482,7 @@
         <v>51.790000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>[1]Winrates_!I19*100</f>
         <v>55.25</v>
@@ -1540,7 +1540,7 @@
         <v>44.800000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>[1]Winrates_!I20*100</f>
         <v>34.61</v>
@@ -1598,7 +1598,7 @@
         <v>79.039999999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>[1]Winrates_!I21*100</f>
         <v>42.93</v>
@@ -1656,7 +1656,7 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>[1]Winrates_!I22*100</f>
         <v>59.929999999999993</v>
@@ -1714,7 +1714,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>[1]Winrates_!I23*100</f>
         <v>74.77000000000001</v>
@@ -1772,7 +1772,7 @@
         <v>49.72</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>[1]Winrates_!I24*100</f>
         <v>49.01</v>
@@ -1830,7 +1830,7 @@
         <v>54.290000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>[1]Winrates_!I25*100</f>
         <v>51.2</v>
@@ -1888,7 +1888,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>[1]Winrates_!I26*100</f>
         <v>34.479999999999997</v>
